--- a/[5] Tester Results/SIGNIFICANT_SEX_SPLIT_STRENGTH_PARAMETRIC.xlsx
+++ b/[5] Tester Results/SIGNIFICANT_SEX_SPLIT_STRENGTH_PARAMETRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15.85772575646931</v>
+        <v>16.09431969546866</v>
       </c>
       <c r="D2" t="n">
-        <v>3.073460920720443e-25</v>
+        <v>3.524874757916437e-24</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15.97482047871221</v>
+        <v>15.97755748763471</v>
       </c>
       <c r="D3" t="n">
-        <v>1.481375450215811e-25</v>
+        <v>3.854158428953594e-24</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15.97821774314405</v>
+        <v>15.2037165265115</v>
       </c>
       <c r="D4" t="n">
-        <v>1.300955312604903e-25</v>
+        <v>2.830348522492848e-23</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.65487061569718</v>
+        <v>16.55225176932407</v>
       </c>
       <c r="D5" t="n">
-        <v>5.703875366673659e-23</v>
+        <v>5.43496484190397e-25</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-5.615473586926813</v>
+        <v>7.64260839306666</v>
       </c>
       <c r="D6" t="n">
-        <v>3.573522587262278e-07</v>
+        <v>1.530186022331522e-10</v>
       </c>
     </row>
     <row r="7">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12.17237910785997</v>
+        <v>15.90807182397458</v>
       </c>
       <c r="D7" t="n">
-        <v>6.814636616553825e-19</v>
+        <v>1.294060728858688e-22</v>
       </c>
     </row>
     <row r="8">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.301921747203941</v>
+        <v>11.14206713475105</v>
       </c>
       <c r="D8" t="n">
-        <v>1.172934771593645e-11</v>
+        <v>1.668015789715233e-16</v>
       </c>
     </row>
     <row r="9">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.344345746471381</v>
+        <v>10.90069335281275</v>
       </c>
       <c r="D9" t="n">
-        <v>9.987295131324331e-12</v>
+        <v>3.496987943302613e-16</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.140038501875255</v>
+        <v>10.78519220579126</v>
       </c>
       <c r="D10" t="n">
-        <v>2.220568088546417e-11</v>
+        <v>2.911300041376755e-16</v>
       </c>
     </row>
     <row r="11">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.439606033007182</v>
+        <v>10.23388746745421</v>
       </c>
       <c r="D11" t="n">
-        <v>1.746906024261254e-08</v>
+        <v>4.563287452603383e-15</v>
       </c>
     </row>
     <row r="12">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-6.763730661366035</v>
+        <v>6.386501259549263</v>
       </c>
       <c r="D12" t="n">
-        <v>2.208374041050213e-09</v>
+        <v>8.731490931845803e-09</v>
       </c>
     </row>
     <row r="13">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.828175660678443</v>
+        <v>11.24725241602951</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0002979196225816907</v>
+        <v>2.619076675527189e-17</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12.46269709248294</v>
+        <v>15.54621302664486</v>
       </c>
       <c r="D14" t="n">
-        <v>4.506240571014584e-22</v>
+        <v>2.999848793948732e-27</v>
       </c>
     </row>
     <row r="15">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12.49532405110916</v>
+        <v>15.24506284340612</v>
       </c>
       <c r="D15" t="n">
-        <v>3.862411476509913e-22</v>
+        <v>7.308198702240957e-27</v>
       </c>
     </row>
     <row r="16">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12.39132877336058</v>
+        <v>14.19555363273579</v>
       </c>
       <c r="D16" t="n">
-        <v>6.411560058732685e-22</v>
+        <v>2.46169570029114e-25</v>
       </c>
     </row>
     <row r="17">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8.325994077043978</v>
+        <v>15.05672525922138</v>
       </c>
       <c r="D17" t="n">
-        <v>1.152688763050008e-12</v>
+        <v>2.236002672217359e-26</v>
       </c>
     </row>
     <row r="18">
@@ -751,32 +751,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-5.835280452086951</v>
+        <v>15.86328305483594</v>
       </c>
       <c r="D18" t="n">
-        <v>6.740753139142282e-08</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>5.161920006560516</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.509141372654725e-06</v>
+        <v>1.54526929467381e-25</v>
       </c>
     </row>
   </sheetData>
